--- a/vendors.PLM-.xlsx
+++ b/vendors.PLM-.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\2.Documents\1. Parking Lot Militia LLC\2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\offic\Desktop\School\SPRING 25\BUS 601 Fund Management\Zag2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4981E40-5FAB-4C21-94A7-43ADE60530B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411A8C2-BEB8-4BF0-8725-76C8C5971169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-11010" windowWidth="16440" windowHeight="28320" xr2:uid="{EAE4A1A6-0099-4F9B-8412-E141B3F6BC9A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{EAE4A1A6-0099-4F9B-8412-E141B3F6BC9A}"/>
   </bookViews>
   <sheets>
     <sheet name="vendors.PLM-" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="734">
   <si>
     <t xml:space="preserve"> Vendor #</t>
   </si>
@@ -2186,6 +2199,42 @@
   </si>
   <si>
     <t>Zelle to Zeus Trans Judas Pena</t>
+  </si>
+  <si>
+    <t>D &amp; M Auto Carier</t>
+  </si>
+  <si>
+    <t>Elair Inc</t>
+  </si>
+  <si>
+    <t>Coriels Transport</t>
+  </si>
+  <si>
+    <t>Colorado Auto Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNG Direct </t>
+  </si>
+  <si>
+    <t>Globeks Corp</t>
+  </si>
+  <si>
+    <t>Uber Haul Logisitcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.D Hauling </t>
+  </si>
+  <si>
+    <t>Elzy Transportation</t>
+  </si>
+  <si>
+    <t>Wiggy Transport</t>
+  </si>
+  <si>
+    <t>Ariel Transport</t>
+  </si>
+  <si>
+    <t>Adolbi Inc</t>
   </si>
 </sst>
 </file>
@@ -3046,9 +3095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B70F746-E6D1-4055-B30C-F10EBCAA7B9C}">
-  <dimension ref="A1:P708"/>
+  <dimension ref="A1:P720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="O708" sqref="B708:O720"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -15094,6 +15145,210 @@
         <v>610</v>
       </c>
     </row>
+    <row r="709" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B709" t="s">
+        <v>722</v>
+      </c>
+      <c r="K709" t="b">
+        <v>0</v>
+      </c>
+      <c r="L709" t="b">
+        <v>0</v>
+      </c>
+      <c r="M709" t="b">
+        <v>1</v>
+      </c>
+      <c r="O709">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="710" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B710" t="s">
+        <v>723</v>
+      </c>
+      <c r="K710" t="b">
+        <v>0</v>
+      </c>
+      <c r="L710" t="b">
+        <v>0</v>
+      </c>
+      <c r="M710" t="b">
+        <v>1</v>
+      </c>
+      <c r="O710">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="711" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B711" t="s">
+        <v>724</v>
+      </c>
+      <c r="K711" t="b">
+        <v>0</v>
+      </c>
+      <c r="L711" t="b">
+        <v>0</v>
+      </c>
+      <c r="M711" t="b">
+        <v>1</v>
+      </c>
+      <c r="O711">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="712" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B712" t="s">
+        <v>725</v>
+      </c>
+      <c r="K712" t="b">
+        <v>0</v>
+      </c>
+      <c r="L712" t="b">
+        <v>0</v>
+      </c>
+      <c r="M712" t="b">
+        <v>1</v>
+      </c>
+      <c r="O712">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="713" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B713" t="s">
+        <v>726</v>
+      </c>
+      <c r="K713" t="b">
+        <v>0</v>
+      </c>
+      <c r="L713" t="b">
+        <v>0</v>
+      </c>
+      <c r="M713" t="b">
+        <v>1</v>
+      </c>
+      <c r="O713">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="714" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B714" t="s">
+        <v>727</v>
+      </c>
+      <c r="K714" t="b">
+        <v>0</v>
+      </c>
+      <c r="L714" t="b">
+        <v>0</v>
+      </c>
+      <c r="M714" t="b">
+        <v>1</v>
+      </c>
+      <c r="O714">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="715" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B715" t="s">
+        <v>728</v>
+      </c>
+      <c r="K715" t="b">
+        <v>0</v>
+      </c>
+      <c r="L715" t="b">
+        <v>0</v>
+      </c>
+      <c r="M715" t="b">
+        <v>1</v>
+      </c>
+      <c r="O715">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="716" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B716" t="s">
+        <v>729</v>
+      </c>
+      <c r="K716" t="b">
+        <v>0</v>
+      </c>
+      <c r="L716" t="b">
+        <v>0</v>
+      </c>
+      <c r="M716" t="b">
+        <v>1</v>
+      </c>
+      <c r="O716">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="717" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B717" t="s">
+        <v>730</v>
+      </c>
+      <c r="K717" t="b">
+        <v>0</v>
+      </c>
+      <c r="L717" t="b">
+        <v>0</v>
+      </c>
+      <c r="M717" t="b">
+        <v>1</v>
+      </c>
+      <c r="O717">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="718" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B718" t="s">
+        <v>731</v>
+      </c>
+      <c r="K718" t="b">
+        <v>0</v>
+      </c>
+      <c r="L718" t="b">
+        <v>0</v>
+      </c>
+      <c r="M718" t="b">
+        <v>1</v>
+      </c>
+      <c r="O718">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="719" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B719" t="s">
+        <v>732</v>
+      </c>
+      <c r="K719" t="b">
+        <v>0</v>
+      </c>
+      <c r="L719" t="b">
+        <v>0</v>
+      </c>
+      <c r="M719" t="b">
+        <v>1</v>
+      </c>
+      <c r="O719">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="720" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B720" t="s">
+        <v>733</v>
+      </c>
+      <c r="K720" t="b">
+        <v>0</v>
+      </c>
+      <c r="L720" t="b">
+        <v>0</v>
+      </c>
+      <c r="M720" t="b">
+        <v>1</v>
+      </c>
+      <c r="O720">
+        <v>610</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
